--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1702</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1760</v>
-      </c>
-      <c r="D2" t="n">
-        <v>450</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>634</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2614</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201</v>
-      </c>
-      <c r="I2" t="n">
-        <v>739</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1381</v>
-      </c>
-      <c r="L2" t="n">
-        <v>270</v>
-      </c>
-      <c r="M2" t="n">
-        <v>411</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>597</v>
-      </c>
-      <c r="P2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1276</v>
-      </c>
-      <c r="R2" t="n">
-        <v>559</v>
-      </c>
-      <c r="S2" t="n">
-        <v>202</v>
-      </c>
-      <c r="T2" t="n">
-        <v>379</v>
-      </c>
-      <c r="U2" t="n">
-        <v>76</v>
-      </c>
-      <c r="V2" t="n">
-        <v>145</v>
-      </c>
-      <c r="W2" t="n">
-        <v>717</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1175</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1078</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1569</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>606</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>216</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2308</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>853</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>38042</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>995</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1716</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3623</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>298</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1297</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3030</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>981</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>755</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1676</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D3" t="n">
-        <v>519</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>697</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2646</v>
-      </c>
-      <c r="H3" t="n">
-        <v>260</v>
-      </c>
-      <c r="I3" t="n">
-        <v>829</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1044</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1408</v>
-      </c>
-      <c r="L3" t="n">
-        <v>305</v>
-      </c>
-      <c r="M3" t="n">
-        <v>415</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2084</v>
-      </c>
-      <c r="O3" t="n">
-        <v>719</v>
-      </c>
-      <c r="P3" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1561</v>
-      </c>
-      <c r="R3" t="n">
-        <v>526</v>
-      </c>
-      <c r="S3" t="n">
-        <v>195</v>
-      </c>
-      <c r="T3" t="n">
-        <v>395</v>
-      </c>
-      <c r="U3" t="n">
-        <v>93</v>
-      </c>
-      <c r="V3" t="n">
-        <v>155</v>
-      </c>
-      <c r="W3" t="n">
-        <v>556</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1279</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1230</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1733</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>626</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>229</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2839</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>924</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>39346</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1742</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3501</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>253</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1211</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2686</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1001</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>813</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1479</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1594</v>
-      </c>
-      <c r="D4" t="n">
-        <v>484</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>696</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2523</v>
-      </c>
-      <c r="H4" t="n">
-        <v>231</v>
-      </c>
-      <c r="I4" t="n">
-        <v>849</v>
-      </c>
-      <c r="J4" t="n">
-        <v>963</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1373</v>
-      </c>
-      <c r="L4" t="n">
-        <v>301</v>
-      </c>
-      <c r="M4" t="n">
-        <v>418</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1943</v>
-      </c>
-      <c r="O4" t="n">
-        <v>647</v>
-      </c>
-      <c r="P4" t="n">
-        <v>205</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1686</v>
-      </c>
-      <c r="R4" t="n">
-        <v>541</v>
-      </c>
-      <c r="S4" t="n">
-        <v>152</v>
-      </c>
-      <c r="T4" t="n">
-        <v>344</v>
-      </c>
-      <c r="U4" t="n">
-        <v>63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>141</v>
-      </c>
-      <c r="W4" t="n">
-        <v>441</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1427</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1310</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1706</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>644</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>232</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2654</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1067</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>37782</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>974</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1755</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3412</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>277</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1049</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2371</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>894</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>764</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>118</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
